--- a/src/data/dataFormation.xlsx
+++ b/src/data/dataFormation.xlsx
@@ -1,7 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amaur\Desktop\DEXEL\Site\src\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B74E1EFC-416E-40A4-AE2C-A565036DCBC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="Personnes" sheetId="1" r:id="rId1"/>
     <sheet name="Formations" sheetId="2" r:id="rId2"/>
@@ -9,37 +19,144 @@
     <sheet name="PersonnesCompétences" sheetId="4" r:id="rId4"/>
     <sheet name="Compétences" sheetId="5" r:id="rId5"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
-<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
-  <metadataTypes count="1">
-    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
-  </metadataTypes>
-  <futureMetadata name="XLDAPR" count="1">
-    <bk>
-      <extLst>
-        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
-          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
-        </ext>
-      </extLst>
-    </bk>
-  </futureMetadata>
-  <cellMetadata count="1">
-    <bk>
-      <rc t="1" v="0"/>
-    </bk>
-  </cellMetadata>
-</metadata>
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+  <si>
+    <t>ID_Personne</t>
+  </si>
+  <si>
+    <t>Genre</t>
+  </si>
+  <si>
+    <t>Nom</t>
+  </si>
+  <si>
+    <t>Prenom</t>
+  </si>
+  <si>
+    <t>Info</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Mr</t>
+  </si>
+  <si>
+    <t>FUMARD</t>
+  </si>
+  <si>
+    <t>Amaury</t>
+  </si>
+  <si>
+    <t>Je m'appel Amaury&lt;br&gt;Merci</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Mme</t>
+  </si>
+  <si>
+    <t>RIVEAUX</t>
+  </si>
+  <si>
+    <t>Marion</t>
+  </si>
+  <si>
+    <t>TEST&lt;br&gt;A</t>
+  </si>
+  <si>
+    <t>DUBOIS</t>
+  </si>
+  <si>
+    <t>Paul</t>
+  </si>
+  <si>
+    <t>IMRENE</t>
+  </si>
+  <si>
+    <t>Pascale</t>
+  </si>
+  <si>
+    <t>Maman</t>
+  </si>
+  <si>
+    <t>ID_Formation</t>
+  </si>
+  <si>
+    <t>NumeroPoste</t>
+  </si>
+  <si>
+    <t>NomPoste</t>
+  </si>
+  <si>
+    <t>TypePoste</t>
+  </si>
+  <si>
+    <t>Competences</t>
+  </si>
+  <si>
+    <t>Poudreuse</t>
+  </si>
+  <si>
+    <t>Conditionneur</t>
+  </si>
+  <si>
+    <t>Vernisseuse</t>
+  </si>
+  <si>
+    <t>Conducteur</t>
+  </si>
+  <si>
+    <t>1;2</t>
+  </si>
+  <si>
+    <t>Embaleuse</t>
+  </si>
+  <si>
+    <t>ID_PersonneFormation</t>
+  </si>
+  <si>
+    <t>Niveau</t>
+  </si>
+  <si>
+    <t>ID_PersonneCompetence</t>
+  </si>
+  <si>
+    <t>ID_Competence</t>
+  </si>
+  <si>
+    <t>DateControle</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>À revoir</t>
+  </si>
+  <si>
+    <t>ID_Compétence</t>
+  </si>
+  <si>
+    <t>NomComp</t>
+  </si>
+  <si>
+    <t>Allumer/Eteindre Machine</t>
+  </si>
+  <si>
+    <t>Chariot manuel</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:vt="http://schemas.openxmlformats.org/officeDocument/2006/docPropsVTypes">
-  <numFmts count="1">
-    <numFmt numFmtId="56" formatCode="&quot;上午/下午 &quot;hh&quot;時&quot;mm&quot;分&quot;ss&quot;秒 &quot;"/>
-  </numFmts>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -69,13 +186,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -400,168 +525,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID_Personne</v>
-      </c>
-      <c r="B1" t="str">
-        <v>Genre</v>
-      </c>
-      <c r="C1" t="str">
-        <v>Nom</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Prenom</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Info</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="str">
-        <v>1</v>
-      </c>
-      <c r="B2" t="str">
-        <v>Mr</v>
-      </c>
-      <c r="C2" t="str">
-        <v>FUMARD</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Amauryzz</v>
-      </c>
-      <c r="E2" t="str">
-        <v>BG</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="str">
-        <v>Mme</v>
-      </c>
-      <c r="C3" t="str">
-        <v>RIVEAUX</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Marion</v>
-      </c>
-    </row>
-    <row r="4">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="str">
-        <v>Mr</v>
-      </c>
-      <c r="C4" t="str">
-        <v>DUBOIS</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Paul</v>
-      </c>
-    </row>
-    <row r="5">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" t="str">
-        <v>Mme</v>
-      </c>
-      <c r="C5" t="str">
-        <v>IMRENE</v>
-      </c>
-      <c r="D5" t="str">
-        <v>Pascale</v>
-      </c>
-      <c r="E5" t="str">
-        <v>Maman</v>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E5"/>
+    <ignoredError sqref="A1:E5" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID_Formation</v>
-      </c>
-      <c r="B1" t="str">
-        <v>NumeroPoste</v>
-      </c>
-      <c r="C1" t="str">
-        <v>NomPoste</v>
-      </c>
-      <c r="D1" t="str">
-        <v>TypePoste</v>
-      </c>
-      <c r="E1" t="str">
-        <v>Competences</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>35</v>
       </c>
-      <c r="C2" t="str">
-        <v>Poudreuse</v>
-      </c>
-      <c r="D2" t="str">
-        <v>Conditionneur</v>
+      <c r="C2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" t="s">
+        <v>26</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>44</v>
       </c>
-      <c r="C3" t="str">
-        <v>Vernisseuse</v>
-      </c>
-      <c r="D3" t="str">
-        <v>Conducteur</v>
-      </c>
-      <c r="E3" t="str">
-        <v>1;2</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>45</v>
       </c>
-      <c r="C4" t="str">
-        <v>Embaleuse</v>
-      </c>
-      <c r="D4" t="str">
-        <v>Conditionneur</v>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -570,33 +701,34 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+    <ignoredError sqref="A1:E4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID_PersonneFormation</v>
-      </c>
-      <c r="B1" t="str">
-        <v>ID_Personne</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ID_Formation</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Niveau</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -610,7 +742,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -624,7 +756,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -641,36 +773,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D4"/>
+    <ignoredError sqref="A1:D4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID_PersonneCompetence</v>
-      </c>
-      <c r="B1" t="str">
-        <v>ID_Personne</v>
-      </c>
-      <c r="C1" t="str">
-        <v>ID_Competence</v>
-      </c>
-      <c r="D1" t="str">
-        <v>Niveau</v>
-      </c>
-      <c r="E1" t="str">
-        <v>DateControle</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -680,14 +813,14 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" t="str">
-        <v>Ok</v>
+      <c r="D2" t="s">
+        <v>36</v>
       </c>
       <c r="E2">
         <v>45251</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -697,14 +830,14 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" t="str">
-        <v>À revoir</v>
+      <c r="D3" t="s">
+        <v>37</v>
       </c>
       <c r="E3">
         <v>45251</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:5" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -714,8 +847,8 @@
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="D4" t="str">
-        <v>Ok</v>
+      <c r="D4" t="s">
+        <v>36</v>
       </c>
       <c r="E4">
         <v>45245</v>
@@ -724,46 +857,47 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E4"/>
+    <ignoredError sqref="A1:E4" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0" rightToLeft="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="str">
-        <v>ID_Compétence</v>
-      </c>
-      <c r="B1" t="str">
-        <v>NomComp</v>
-      </c>
-    </row>
-    <row r="2">
+    <row r="1" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" t="str">
-        <v>Allumer/Eteindre Machine</v>
-      </c>
-    </row>
-    <row r="3">
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="str">
-        <v>Chariot manuel</v>
+      <c r="B3" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:B3"/>
+    <ignoredError sqref="A1:B3" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>